--- a/docs/data/BES citsci data summary v3.xlsx
+++ b/docs/data/BES citsci data summary v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nercacuk-my.sharepoint.com/personal/tomaug_ceh_ac_uk/Documents/Data_synthesis_workshop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03860AA-D118-473B-85E8-0692C0AD473E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C03860AA-D118-473B-85E8-0692C0AD473E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F36887A-25B3-4CBB-9303-676BB31461BA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13650" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -1869,9 +1869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1928,7 @@
         <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q1" t="s">
         <v>127</v>
@@ -5093,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1376" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1368" sqref="E1368:E1403"/>
     </sheetView>
